--- a/data/Reports.xlsx
+++ b/data/Reports.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97333\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB40D6A-13F3-4FA4-9F2C-623FFF2520F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B141526C-05FE-425B-B5B3-558C1EE8B7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="243">
   <si>
     <t>Year</t>
   </si>
@@ -704,6 +704,51 @@
   </si>
   <si>
     <t>Ongoing project for removing harmful trees, preparing basins and soil, and implementing landscape design works.</t>
+  </si>
+  <si>
+    <t>Flag Roundabout - Fountain</t>
+  </si>
+  <si>
+    <t>Rest Area Behind Staff Affairs Building</t>
+  </si>
+  <si>
+    <t>College of Science Rest Areas</t>
+  </si>
+  <si>
+    <t>College of IT Rest Areas</t>
+  </si>
+  <si>
+    <t>Rest Areas Overlooking the Walkway - Maintenance Street</t>
+  </si>
+  <si>
+    <t>College of Teachers S22</t>
+  </si>
+  <si>
+    <t>Main Streets to Western Gate</t>
+  </si>
+  <si>
+    <t>College of Applied Sciences and S20A</t>
+  </si>
+  <si>
+    <t>S20 Roundabout Leading to Eastern Gate</t>
+  </si>
+  <si>
+    <t>Agricultural Area to the Right of Administration Hall Exit and Surroundings</t>
+  </si>
+  <si>
+    <t>In Front of College of IT S40</t>
+  </si>
+  <si>
+    <t>In Front of Health Clinic Building</t>
+  </si>
+  <si>
+    <t>S39A</t>
+  </si>
+  <si>
+    <t>Street Leading to College of Science Roundabout</t>
+  </si>
+  <si>
+    <t>Internal Ring Road of the University</t>
   </si>
 </sst>
 </file>
@@ -738,7 +783,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -746,38 +791,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,64 +1117,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12" style="4" customWidth="1"/>
-    <col min="7" max="8" width="50" style="4" customWidth="1"/>
-    <col min="9" max="10" width="12" style="4" customWidth="1"/>
-    <col min="11" max="11" width="60" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="8" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="7" max="8" width="50" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12" style="2" customWidth="1"/>
+    <col min="11" max="11" width="60" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -1173,7 +1209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2024</v>
       </c>
@@ -1208,7 +1244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -1242,8 +1278,9 @@
       <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2024</v>
       </c>
@@ -1278,7 +1315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2024</v>
       </c>
@@ -1313,7 +1350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
@@ -1348,7 +1385,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -1383,7 +1420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2024</v>
       </c>
@@ -1418,7 +1455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -1453,7 +1490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
@@ -1488,7 +1525,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2024</v>
       </c>
@@ -1523,7 +1560,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2024</v>
       </c>
@@ -1558,7 +1595,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2024</v>
       </c>
@@ -1593,7 +1630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2024</v>
       </c>
@@ -1628,7 +1665,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2024</v>
       </c>
@@ -2327,6 +2364,201 @@
       <c r="K35" s="1" t="s">
         <v>227</v>
       </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B38" s="6">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B39" s="6">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B40" s="6">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B41" s="6">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B42" s="6">
+        <v>7</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B43" s="6">
+        <v>8</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B44" s="6">
+        <v>9</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B45" s="6">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B46" s="6">
+        <v>11</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B47" s="6">
+        <v>12</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B48" s="6">
+        <v>13</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B49" s="6">
+        <v>14</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B50" s="6">
+        <v>15</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Reports.xlsx
+++ b/data/Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B141526C-05FE-425B-B5B3-558C1EE8B7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38428D9E-1A90-4513-BE4C-19A6B42F5706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="258">
   <si>
     <t>Year</t>
   </si>
@@ -749,13 +749,58 @@
   </si>
   <si>
     <t>Internal Ring Road of the University</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ZBiKi1G4XNck18qZ6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/U6LLPQXegWbCLHfXA</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/YoXCqeM41Za5hagH7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/xyPe6YAxGZaCkaQH6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/RBwvLQbu1WHKcCkx8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/H78yD8K5nJ7Nis7Q6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/FwP5qaDwWbJFaU1g8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/EwNaHYCxzmyEoJjN8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/hZC4owgeT4cF2bzB7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/xcx1wmcbfjTbNuuH6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/JS58ow3hSAydQ9PX8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/SJ1PiPADR2gNba1E9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/bkm1r6duJUPTpqFJ7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/5BXyqevAHgZtkUAy7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/TPjgki8dog5mWmFv5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,12 +809,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,12 +839,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor rgb="FFD3E4CD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -791,32 +876,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1117,1450 +1251,1496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="8" width="50" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="60" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35" style="18" customWidth="1"/>
+    <col min="4" max="4" width="45" style="18" customWidth="1"/>
+    <col min="5" max="5" width="40" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12" style="18" customWidth="1"/>
+    <col min="7" max="8" width="50" style="18" customWidth="1"/>
+    <col min="9" max="10" width="12" style="18" customWidth="1"/>
+    <col min="11" max="11" width="60" style="18" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="18" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>2024</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>142</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>2024</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>322</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>2024</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>409</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>2024</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>897</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>2024</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>370</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>2024</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>41</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>2024</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>14</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>2024</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>198</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>2024</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>125</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>2024</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>55</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>2024</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>2024</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>57</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>2024</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>46</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>2024</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>10</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>2024</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>12</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>2024</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>77</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>2024</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>130</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>2024</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>330</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>2024</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>307</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>2024</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>130</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>2024</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>55</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>2024</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>11</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>2024</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>237</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
         <v>2025</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="7">
         <v>80</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
         <v>2025</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
         <v>2025</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>3</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
         <v>2025</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
         <v>2025</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>5</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="7">
         <v>350</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>2025</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>6</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="7">
         <v>50</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
         <v>2025</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="6">
         <v>7</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="7">
         <v>1000</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="1:11" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
         <v>2025</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <v>8</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="7">
         <v>104</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
         <v>2025</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>9</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="7">
         <v>12</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" spans="1:11" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
         <v>2025</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>10</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="7">
         <v>100</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" spans="1:11" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
         <v>2025</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>11</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
         <v>2026</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="9">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+      <c r="D36" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
         <v>2026</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="9">
         <v>2</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+      <c r="D37" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
         <v>2026</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="9">
         <v>3</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+      <c r="D38" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
         <v>2026</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="9">
         <v>4</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+      <c r="D39" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
         <v>2026</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="9">
         <v>5</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+      <c r="D40" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
         <v>2026</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="9">
         <v>6</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+      <c r="D41" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
         <v>2026</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="9">
         <v>7</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+      <c r="D42" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
         <v>2026</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="9">
         <v>8</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+      <c r="D43" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="13">
         <v>2026</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="13">
         <v>9</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="D44" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
         <v>2026</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="9">
         <v>10</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+      <c r="D45" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
         <v>2026</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="9">
         <v>11</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+      <c r="D46" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
         <v>2026</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="9">
         <v>12</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
+      <c r="D47" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
         <v>2026</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="9">
         <v>13</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+      <c r="D48" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
         <v>2026</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="9">
         <v>14</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+      <c r="D49" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
         <v>2026</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="9">
         <v>15</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E50" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D36" r:id="rId1" xr:uid="{1000462C-B238-431A-B2A1-3FC2BD2E2813}"/>
+    <hyperlink ref="D37" r:id="rId2" xr:uid="{1B9305A2-EFAE-494D-AE61-72B82236A00A}"/>
+    <hyperlink ref="D38" r:id="rId3" xr:uid="{37366389-41FF-4E4B-BBAA-23F6E2BDE2E5}"/>
+    <hyperlink ref="D39" r:id="rId4" xr:uid="{005A1CEE-5E9C-41CE-ADDB-E229F3A1DF65}"/>
+    <hyperlink ref="D40" r:id="rId5" xr:uid="{0D35B99D-C761-48D2-A6FC-1AA9DABC570E}"/>
+    <hyperlink ref="D41" r:id="rId6" xr:uid="{2C3EF60F-AF56-486A-A65A-90521D1BE076}"/>
+    <hyperlink ref="D42" r:id="rId7" xr:uid="{C95DBB32-C8B9-4192-B5A8-A2BBC5AE8709}"/>
+    <hyperlink ref="D43" r:id="rId8" xr:uid="{0245B09C-A05C-42F8-9F53-B3C0DF8A3B3B}"/>
+    <hyperlink ref="D44" r:id="rId9" xr:uid="{41838A62-16DE-40C3-A6D6-65FCB68C828C}"/>
+    <hyperlink ref="D45" r:id="rId10" xr:uid="{1DA3C22A-9C35-431D-9E54-09A3B7395A7F}"/>
+    <hyperlink ref="D46" r:id="rId11" xr:uid="{D058C4E8-F8D4-42F8-A17C-BC9F6C69C57E}"/>
+    <hyperlink ref="D47" r:id="rId12" xr:uid="{D2DB956F-0AE2-4C2E-8230-86EBD2EFD849}"/>
+    <hyperlink ref="D48" r:id="rId13" xr:uid="{7FDA2993-EE4C-4AEE-A744-BD17EE8DF685}"/>
+    <hyperlink ref="D49" r:id="rId14" xr:uid="{C3597594-CEFA-42FD-809C-D15002498BB3}"/>
+    <hyperlink ref="D50" r:id="rId15" xr:uid="{D97DA6E9-7A4E-4C31-A094-581BEFAE38C5}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/Reports.xlsx
+++ b/data/Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38428D9E-1A90-4513-BE4C-19A6B42F5706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25385C9-0E40-4A38-AF0B-E38803660D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="259">
   <si>
     <t>Year</t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>https://maps.app.goo.gl/TPjgki8dog5mWmFv5</t>
+  </si>
+  <si>
+    <t>jerhti</t>
   </si>
 </sst>
 </file>
@@ -937,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1251,11 +1254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2722,6 +2725,20 @@
         <v>257</v>
       </c>
       <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="17">
+        <v>2027</v>
+      </c>
+      <c r="B51" s="17">
+        <v>1</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/Reports.xlsx
+++ b/data/Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25385C9-0E40-4A38-AF0B-E38803660D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4040E60-FB46-4A21-AD30-E103931C8A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="258">
   <si>
     <t>Year</t>
   </si>
@@ -794,9 +794,6 @@
   </si>
   <si>
     <t>https://maps.app.goo.gl/TPjgki8dog5mWmFv5</t>
-  </si>
-  <si>
-    <t>jerhti</t>
   </si>
 </sst>
 </file>
@@ -1254,11 +1251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2725,20 +2722,6 @@
         <v>257</v>
       </c>
       <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="17">
-        <v>2027</v>
-      </c>
-      <c r="B51" s="17">
-        <v>1</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>257</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
